--- a/DeepLearning/file1.xlsx
+++ b/DeepLearning/file1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ספיר יהודה\Satellite-communication\SVM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384DBA7E-FF16-4AD7-9E36-A65C54C5A7C9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6975" tabRatio="388"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="pop_failures" localSheetId="0">Sheet1!$A$1:$S$541</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +22,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="pop_failures" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="pop_failures" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr sourceFile="C:\Users\RENT\Documents\MATLAB\deepLearning\pop_failures.txt" tab="0" space="1" comma="1" consecutive="1">
       <textFields count="22">
         <textField/>
@@ -123,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +167,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pop_failures" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pop_failures" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,36 +425,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S541"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H520" workbookViewId="0">
+      <selection activeCell="P542" sqref="P542"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="11.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.859036206437223</v>
       </c>
@@ -575,10 +569,10 @@
         <v>0.86989303813574603</v>
       </c>
       <c r="S2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.60604102523712799</v>
       </c>
@@ -637,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.997599777030862</v>
       </c>
@@ -696,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.78340785930631596</v>
       </c>
@@ -755,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.406249530785458</v>
       </c>
@@ -814,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4.1379469705538602E-2</v>
       </c>
@@ -873,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.16105006757036999</v>
       </c>
@@ -932,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.41529898639354401</v>
       </c>
@@ -991,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.166757877802269</v>
       </c>
@@ -1050,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.65562607853207699</v>
       </c>
@@ -1109,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.59000797664177496</v>
       </c>
@@ -1168,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.88192907938242104</v>
       </c>
@@ -1227,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.96101026152286395</v>
       </c>
@@ -1283,10 +1277,10 @@
         <v>0.531368854744101</v>
       </c>
       <c r="S14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.172529525368008</v>
       </c>
@@ -1345,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.39651355870300897</v>
       </c>
@@ -1404,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5.1620363242303298E-2</v>
       </c>
@@ -1463,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.81435643589098206</v>
       </c>
@@ -1522,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.595624121317329</v>
       </c>
@@ -1581,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.45328746811848902</v>
       </c>
@@ -1640,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.35867749284176698</v>
       </c>
@@ -1699,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.79519834242657605</v>
       </c>
@@ -1758,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.50068285893002096</v>
       </c>
@@ -1817,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2.9453695644365799E-2</v>
       </c>
@@ -1876,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.29486372226124802</v>
       </c>
@@ -1935,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.48392071678277299</v>
       </c>
@@ -1994,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.77399662722471196</v>
       </c>
@@ -2053,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.42027739623509702</v>
       </c>
@@ -2112,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.53135104474818495</v>
       </c>
@@ -2171,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.30503805603107598</v>
       </c>
@@ -2230,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.250101395041888</v>
       </c>
@@ -2289,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.38408225803092699</v>
       </c>
@@ -2348,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.71520853749372804</v>
       </c>
@@ -2407,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.67859622197251501</v>
       </c>
@@ -2466,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.74268908626141195</v>
       </c>
@@ -2525,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1.4698195381141701E-2</v>
       </c>
@@ -2584,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.198483945168037</v>
       </c>
@@ -2643,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.49283705209123102</v>
       </c>
@@ -2702,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.94236070490700896</v>
       </c>
@@ -2761,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.403572912117104</v>
       </c>
@@ -2820,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.122877339907507</v>
       </c>
@@ -2879,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.80933617625721799</v>
       </c>
@@ -2938,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.93177985711307698</v>
       </c>
@@ -2997,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.31999140453214397</v>
       </c>
@@ -3056,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.675576680387732</v>
       </c>
@@ -3112,10 +3106,10 @@
         <v>0.206474048663706</v>
       </c>
       <c r="S45">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.13289559697085501</v>
       </c>
@@ -3174,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.36611384799600399</v>
       </c>
@@ -3233,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.115795247567196</v>
       </c>
@@ -3292,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.86213444012682805</v>
       </c>
@@ -3351,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.72828929299462797</v>
       </c>
@@ -3407,10 +3401,10 @@
         <v>3.1839535675114998E-3</v>
       </c>
       <c r="S50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.89213599930776</v>
       </c>
@@ -3469,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.34720203880246497</v>
       </c>
@@ -3528,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.46655871248157199</v>
       </c>
@@ -3587,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.60231092366415695</v>
       </c>
@@ -3646,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.63457597117068998</v>
       </c>
@@ -3705,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.68486070240744201</v>
       </c>
@@ -3764,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.89637678805868004</v>
       </c>
@@ -3823,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.13719412676550199</v>
       </c>
@@ -3882,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.96465288189420795</v>
       </c>
@@ -3938,10 +3932,10 @@
         <v>0.94912227763949597</v>
       </c>
       <c r="S59">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.44049179894047602</v>
       </c>
@@ -4000,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.22447180271070999</v>
       </c>
@@ -4059,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.25890591103945698</v>
       </c>
@@ -4118,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.52221071018009502</v>
       </c>
@@ -4177,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.61646938689777397</v>
       </c>
@@ -4233,10 +4227,10 @@
         <v>0.25047649868712202</v>
       </c>
       <c r="S64">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.10884925586611199</v>
       </c>
@@ -4295,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.46702627939715302</v>
       </c>
@@ -4354,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.66303898581019005</v>
       </c>
@@ -4413,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.16614273475198399</v>
       </c>
@@ -4472,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.542796895223566</v>
       </c>
@@ -4531,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.31035208900898897</v>
       </c>
@@ -4590,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.55422893614094204</v>
       </c>
@@ -4649,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>6.0471399742851199E-2</v>
       </c>
@@ -4708,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.83717839594594101</v>
       </c>
@@ -4767,7 +4761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.27141807072330199</v>
       </c>
@@ -4826,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2.3921181449097401E-2</v>
       </c>
@@ -4885,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.27381307504450197</v>
       </c>
@@ -4944,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.49843855746504301</v>
       </c>
@@ -5003,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.28834467321608398</v>
       </c>
@@ -5062,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.90673635059372604</v>
       </c>
@@ -5118,10 +5112,10 @@
         <v>0.27230346222511598</v>
       </c>
       <c r="S79">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.79075706599849305</v>
       </c>
@@ -5180,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.64425917257451304</v>
       </c>
@@ -5239,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.24411844079925901</v>
       </c>
@@ -5298,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.80518011590336502</v>
       </c>
@@ -5357,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.67158686559673197</v>
       </c>
@@ -5416,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.57940177841163698</v>
       </c>
@@ -5475,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.97730516791602295</v>
       </c>
@@ -5531,10 +5525,10 @@
         <v>0.50475635588971002</v>
       </c>
       <c r="S86">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.47309887148181101</v>
       </c>
@@ -5590,10 +5584,10 @@
         <v>2.1074253532828501E-2</v>
       </c>
       <c r="S87">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.50807842855186502</v>
       </c>
@@ -5652,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.48289123869811501</v>
       </c>
@@ -5711,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.54994188501603003</v>
       </c>
@@ -5770,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.629926170036196</v>
       </c>
@@ -5829,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.69305824987047004</v>
       </c>
@@ -5888,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.91778110014145298</v>
       </c>
@@ -5947,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.96979965625796405</v>
       </c>
@@ -6003,10 +5997,10 @@
         <v>0.99104051970773199</v>
       </c>
       <c r="S94">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1.2544331554737299E-3</v>
       </c>
@@ -6065,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.76781432591766696</v>
       </c>
@@ -6121,10 +6115,10 @@
         <v>0.77529645818544302</v>
       </c>
       <c r="S96">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.84246829759536501</v>
       </c>
@@ -6183,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.38199201033114299</v>
       </c>
@@ -6242,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.97882723598740995</v>
       </c>
@@ -6301,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.95004583383108299</v>
       </c>
@@ -6360,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.559647826217891</v>
       </c>
@@ -6419,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>8.6031269223894896E-2</v>
       </c>
@@ -6478,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.58587604135585303</v>
       </c>
@@ -6537,7 +6531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>8.6408043590684696E-3</v>
       </c>
@@ -6596,7 +6590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4.9399711821590399E-2</v>
       </c>
@@ -6655,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>7.6474457940397103E-2</v>
       </c>
@@ -6714,7 +6708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.29059104804570401</v>
       </c>
@@ -6773,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>6.9438479954583701E-2</v>
       </c>
@@ -6832,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.37583643811522</v>
       </c>
@@ -6891,7 +6885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.91500344750755902</v>
       </c>
@@ -6947,10 +6941,10 @@
         <v>7.8373514690125906E-2</v>
       </c>
       <c r="S110">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.335994525127009</v>
       </c>
@@ -7009,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.52413012939375903</v>
       </c>
@@ -7068,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.56331410701386597</v>
       </c>
@@ -7127,7 +7121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.43032403685825099</v>
       </c>
@@ -7186,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.324661868059128</v>
       </c>
@@ -7245,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.86826125209400795</v>
       </c>
@@ -7301,10 +7295,10 @@
         <v>0.494947566556382</v>
       </c>
       <c r="S116">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.90231708346012296</v>
       </c>
@@ -7363,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.990747417276725</v>
       </c>
@@ -7419,10 +7413,10 @@
         <v>0.59275956205221703</v>
       </c>
       <c r="S118">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.70476441254658195</v>
       </c>
@@ -7481,7 +7475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.74966630652391597</v>
       </c>
@@ -7540,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.781873577415374</v>
       </c>
@@ -7599,7 +7593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>9.8300305183511197E-2</v>
       </c>
@@ -7658,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.24791716630441199</v>
       </c>
@@ -7717,7 +7711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.17936305555049301</v>
       </c>
@@ -7776,7 +7770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.37169412844814298</v>
       </c>
@@ -7835,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.75886700017403597</v>
       </c>
@@ -7894,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.93731153487460594</v>
       </c>
@@ -7953,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.81768487328663397</v>
       </c>
@@ -8012,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.45678144699454098</v>
       </c>
@@ -8071,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.94589062778848298</v>
       </c>
@@ -8130,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.92534322399878799</v>
       </c>
@@ -8189,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.44517621424100801</v>
       </c>
@@ -8248,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>8.1696823684291695E-2</v>
       </c>
@@ -8307,7 +8301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.23322820649352899</v>
       </c>
@@ -8366,7 +8360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.69856164500298301</v>
       </c>
@@ -8422,10 +8416,10 @@
         <v>0.76926483783948496</v>
       </c>
       <c r="S135">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.207145063780869</v>
       </c>
@@ -8484,7 +8478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.82998487921949005</v>
       </c>
@@ -8543,7 +8537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.57483753988053599</v>
       </c>
@@ -8602,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.14371759183834201</v>
       </c>
@@ -8661,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.84987423739189005</v>
       </c>
@@ -8720,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.62108967317682096</v>
       </c>
@@ -8779,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.51194739732761896</v>
       </c>
@@ -8838,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.64936603154961203</v>
       </c>
@@ -8897,7 +8891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.75117091871539299</v>
       </c>
@@ -8956,7 +8950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.42355239020091301</v>
       </c>
@@ -9015,7 +9009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.19190385031979501</v>
       </c>
@@ -9074,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.205554162822146</v>
       </c>
@@ -9133,7 +9127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>3.51426722119665E-2</v>
       </c>
@@ -9192,7 +9186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.35054677946674101</v>
       </c>
@@ -9251,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.71965504055066598</v>
       </c>
@@ -9310,7 +9304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.34168895679758798</v>
       </c>
@@ -9369,7 +9363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.212629184049243</v>
       </c>
@@ -9428,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.26204559197649302</v>
       </c>
@@ -9487,7 +9481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.57197161690306098</v>
       </c>
@@ -9546,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.87431973728946299</v>
       </c>
@@ -9602,10 +9596,10 @@
         <v>0.241878024064418</v>
       </c>
       <c r="S155">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.73689702479298103</v>
       </c>
@@ -9661,10 +9655,10 @@
         <v>0.141093755280599</v>
       </c>
       <c r="S156">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.65548642392839396</v>
       </c>
@@ -9723,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.31529721519909798</v>
       </c>
@@ -9782,7 +9776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.14453245071927001</v>
       </c>
@@ -9841,7 +9835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.101554527951197</v>
       </c>
@@ -9900,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.71019113252793098</v>
       </c>
@@ -9959,7 +9953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.39253196455926298</v>
       </c>
@@ -10018,7 +10012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>9.05760372393868E-2</v>
       </c>
@@ -10077,7 +10071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>6.29494864157297E-2</v>
       </c>
@@ -10136,7 +10130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.85390372226376898</v>
       </c>
@@ -10192,10 +10186,10 @@
         <v>0.92444254855185504</v>
       </c>
       <c r="S165">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.23420151032947201</v>
       </c>
@@ -10254,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.53793436545205997</v>
       </c>
@@ -10313,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.33192084470712002</v>
       </c>
@@ -10372,7 +10366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.98658899453002902</v>
       </c>
@@ -10431,7 +10425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.88786525966780605</v>
       </c>
@@ -10487,10 +10481,10 @@
         <v>0.41293883507864299</v>
       </c>
       <c r="S170">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.28191738683575102</v>
       </c>
@@ -10549,7 +10543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1.8340909563832799E-2</v>
       </c>
@@ -10608,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.43859473601785498</v>
       </c>
@@ -10667,7 +10661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.82261832611661201</v>
       </c>
@@ -10726,7 +10720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.22167659372401699</v>
       </c>
@@ -10785,7 +10779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.72774729109369196</v>
       </c>
@@ -10844,7 +10838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.76409747092855196</v>
       </c>
@@ -10903,7 +10897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.62656317718534005</v>
       </c>
@@ -10959,10 +10953,10 @@
         <v>0.72663058795215896</v>
       </c>
       <c r="S178">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.15131140502764701</v>
       </c>
@@ -11021,7 +11015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.18776140650475601</v>
       </c>
@@ -11080,7 +11074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.119935063840562</v>
       </c>
@@ -11139,7 +11133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.34787083728006102</v>
       </c>
@@ -11198,7 +11192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.161031318091166</v>
       </c>
@@ -11257,7 +11251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.66795118771001905</v>
       </c>
@@ -11316,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.90402193411719001</v>
       </c>
@@ -11372,10 +11366,10 @@
         <v>0.97791808625657295</v>
       </c>
       <c r="S185">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.102744267300133</v>
       </c>
@@ -11434,7 +11428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.29447787791593999</v>
       </c>
@@ -11493,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.66444186048012999</v>
       </c>
@@ -11552,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.181922964925049</v>
       </c>
@@ -11611,7 +11605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.80337118095614801</v>
       </c>
@@ -11670,7 +11664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.26640034399072898</v>
       </c>
@@ -11729,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.20393083329415901</v>
       </c>
@@ -11788,7 +11782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.14224446002109301</v>
       </c>
@@ -11847,7 +11841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.82237631076325901</v>
       </c>
@@ -11906,7 +11900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1.9184581223978699E-2</v>
       </c>
@@ -11965,7 +11959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.64218454186468199</v>
       </c>
@@ -12024,7 +12018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.88095890462346704</v>
       </c>
@@ -12080,10 +12074,10 @@
         <v>0.72623101012367297</v>
       </c>
       <c r="S197">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.76136195431722098</v>
       </c>
@@ -12142,7 +12136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.98404767232326096</v>
       </c>
@@ -12201,7 +12195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>5.7538136352215698E-2</v>
       </c>
@@ -12260,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>4.72298906934965E-2</v>
       </c>
@@ -12319,7 +12313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.33153454093262502</v>
       </c>
@@ -12378,7 +12372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.62916452266379297</v>
       </c>
@@ -12437,7 +12431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.59675311814191601</v>
       </c>
@@ -12496,7 +12490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.88985586760746704</v>
       </c>
@@ -12555,7 +12549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.65564664525445504</v>
       </c>
@@ -12614,7 +12608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.739008972949038</v>
       </c>
@@ -12670,10 +12664,10 @@
         <v>0.91716222106996503</v>
       </c>
       <c r="S207">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.91663711249388502</v>
       </c>
@@ -12732,7 +12726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.474680907558649</v>
       </c>
@@ -12791,7 +12785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.940834045866763</v>
       </c>
@@ -12850,7 +12844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.56371568285653095</v>
       </c>
@@ -12909,7 +12903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.384706539439503</v>
       </c>
@@ -12968,7 +12962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.745755002310033</v>
       </c>
@@ -13027,7 +13021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.47085331591467</v>
       </c>
@@ -13086,7 +13080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.55516221145452505</v>
       </c>
@@ -13145,7 +13139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.55851513796434205</v>
       </c>
@@ -13204,7 +13198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.28023480267988299</v>
       </c>
@@ -13263,7 +13257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.98167542103652095</v>
       </c>
@@ -13319,10 +13313,10 @@
         <v>0.82457351485888097</v>
       </c>
       <c r="S218">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>8.6920917457124797E-2</v>
       </c>
@@ -13381,7 +13375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.61537447121873901</v>
       </c>
@@ -13440,7 +13434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.90860275577805505</v>
       </c>
@@ -13499,7 +13493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1.6367366510288101E-2</v>
       </c>
@@ -13558,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>6.3982518542454403E-2</v>
       </c>
@@ -13617,7 +13611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.92335841094479998</v>
       </c>
@@ -13676,7 +13670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.17084361866970199</v>
       </c>
@@ -13735,7 +13729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.59056465958710702</v>
       </c>
@@ -13794,7 +13788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.71326599167142402</v>
       </c>
@@ -13853,7 +13847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.46444178524866903</v>
       </c>
@@ -13912,7 +13906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.375980201913302</v>
       </c>
@@ -13971,7 +13965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.83561169605753904</v>
       </c>
@@ -14030,7 +14024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.14653622584494999</v>
       </c>
@@ -14089,7 +14083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>6.9830397171123507E-2</v>
       </c>
@@ -14148,7 +14142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.870579096884466</v>
       </c>
@@ -14207,7 +14201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.40735202843659601</v>
       </c>
@@ -14266,7 +14260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.22360976539784999</v>
       </c>
@@ -14325,7 +14319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.94952916239724605</v>
       </c>
@@ -14384,7 +14378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0.52228643568749999</v>
       </c>
@@ -14443,7 +14437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.62752548252982598</v>
       </c>
@@ -14502,7 +14496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.88472236098928503</v>
       </c>
@@ -14561,7 +14555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.50059915025873702</v>
       </c>
@@ -14620,7 +14614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.41649440236312002</v>
       </c>
@@ -14679,7 +14673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.51171049207009101</v>
       </c>
@@ -14738,7 +14732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.487058639338809</v>
       </c>
@@ -14797,7 +14791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.79557153130752101</v>
       </c>
@@ -14856,7 +14850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2.96740411302178E-2</v>
       </c>
@@ -14915,7 +14909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0.49939693046164602</v>
       </c>
@@ -14974,7 +14968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2.36062088088753E-2</v>
       </c>
@@ -15033,7 +15027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.45336341108324801</v>
       </c>
@@ -15092,7 +15086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.22999649516487899</v>
       </c>
@@ -15151,7 +15145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0.50706053180102595</v>
       </c>
@@ -15210,7 +15204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>9.6363568907448405E-2</v>
       </c>
@@ -15269,7 +15263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0.390909798941316</v>
       </c>
@@ -15328,7 +15322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0.37970133789220001</v>
       </c>
@@ -15387,7 +15381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0.64514605727227803</v>
       </c>
@@ -15446,7 +15440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0.20693541235135199</v>
       </c>
@@ -15505,7 +15499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0.93481277921107697</v>
       </c>
@@ -15564,7 +15558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1.0827832222760901E-2</v>
       </c>
@@ -15623,7 +15617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0.61027219948979705</v>
       </c>
@@ -15682,7 +15676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0.51696064789882901</v>
       </c>
@@ -15741,7 +15735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0.342483986356657</v>
       </c>
@@ -15800,7 +15794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0.25879540646888499</v>
       </c>
@@ -15859,7 +15853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0.92792666717432404</v>
       </c>
@@ -15918,7 +15912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0.68981024711004701</v>
       </c>
@@ -15977,7 +15971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0.24829685471356899</v>
       </c>
@@ -16036,7 +16030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>3.7891797908943897E-2</v>
       </c>
@@ -16095,7 +16089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0.57497148377846696</v>
       </c>
@@ -16154,7 +16148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0.221992376272101</v>
       </c>
@@ -16213,7 +16207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0.11787757751298999</v>
       </c>
@@ -16272,7 +16266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0.79420201927940803</v>
       </c>
@@ -16331,7 +16325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0.442698382565544</v>
       </c>
@@ -16390,7 +16384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0.60427439701226004</v>
       </c>
@@ -16449,7 +16443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0.91792810838281402</v>
       </c>
@@ -16508,7 +16502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0.95688231128216195</v>
       </c>
@@ -16564,10 +16558,10 @@
         <v>0.48080114746569702</v>
       </c>
       <c r="S273">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.61992016657281401</v>
       </c>
@@ -16626,7 +16620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0.125499148161098</v>
       </c>
@@ -16685,7 +16679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>3.9060105682195402E-2</v>
       </c>
@@ -16744,7 +16738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0.478391196405411</v>
       </c>
@@ -16803,7 +16797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0.27020941912713897</v>
       </c>
@@ -16862,7 +16856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.76037899579257795</v>
       </c>
@@ -16918,10 +16912,10 @@
         <v>0.12798261093622401</v>
       </c>
       <c r="S279">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1.8702060682699001E-3</v>
       </c>
@@ -16980,7 +16974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.89643374898651995</v>
       </c>
@@ -17039,7 +17033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.728878398905767</v>
       </c>
@@ -17098,7 +17092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.421671744173444</v>
       </c>
@@ -17157,7 +17151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0.69795637900759899</v>
       </c>
@@ -17216,7 +17210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0.39701859932004702</v>
       </c>
@@ -17275,7 +17269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0.23594568463094101</v>
       </c>
@@ -17334,7 +17328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0.96649353763269596</v>
       </c>
@@ -17393,7 +17387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0.33552234977768303</v>
       </c>
@@ -17452,7 +17446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0.43696810650742701</v>
       </c>
@@ -17511,7 +17505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0.28704255143206298</v>
       </c>
@@ -17570,7 +17564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0.43210650589834398</v>
       </c>
@@ -17629,7 +17623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0.15434507621943699</v>
       </c>
@@ -17688,7 +17682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0.78333509026172798</v>
       </c>
@@ -17744,10 +17738,10 @@
         <v>0.104409731220867</v>
       </c>
       <c r="S293">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0.36060826579729699</v>
       </c>
@@ -17806,7 +17800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0.35307290606174802</v>
       </c>
@@ -17865,7 +17859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>5.1490982434350102E-2</v>
       </c>
@@ -17924,7 +17918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>7.9825848489741003E-2</v>
       </c>
@@ -17980,10 +17974,10 @@
         <v>0.73686379257641299</v>
       </c>
       <c r="S297">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0.13737767631601899</v>
       </c>
@@ -18042,7 +18036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0.54015593832074105</v>
       </c>
@@ -18101,7 +18095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0.31775244990389501</v>
       </c>
@@ -18160,7 +18154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0.324435223566575</v>
       </c>
@@ -18219,7 +18213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0.18393327867250001</v>
       </c>
@@ -18278,7 +18272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0.65282447818123401</v>
       </c>
@@ -18337,7 +18331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0.53263513146666797</v>
       </c>
@@ -18396,7 +18390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>9.1161704952052405E-2</v>
       </c>
@@ -18455,7 +18449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0.96723160370925598</v>
       </c>
@@ -18511,10 +18505,10 @@
         <v>0.29861285141798499</v>
       </c>
       <c r="S306">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0.70922164746637695</v>
       </c>
@@ -18573,7 +18567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0.49259684025697997</v>
       </c>
@@ -18632,7 +18626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0.84619308427985096</v>
       </c>
@@ -18691,7 +18685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0.67721306149873595</v>
       </c>
@@ -18750,7 +18744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0.83087331892974203</v>
       </c>
@@ -18809,7 +18803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>7.5530008556476402E-2</v>
       </c>
@@ -18868,7 +18862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0.53767734282106705</v>
       </c>
@@ -18927,7 +18921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0.80867514769262105</v>
       </c>
@@ -18986,7 +18980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0.81511701136284198</v>
       </c>
@@ -19045,7 +19039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0.77580115788926596</v>
       </c>
@@ -19104,7 +19098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0.63737773405672504</v>
       </c>
@@ -19160,10 +19154,10 @@
         <v>0.62559566248285803</v>
       </c>
       <c r="S317">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0.78198433693161995</v>
       </c>
@@ -19222,7 +19216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0.73635139935261795</v>
       </c>
@@ -19281,7 +19275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0.30471673894595902</v>
       </c>
@@ -19340,7 +19334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0.173673769384105</v>
       </c>
@@ -19399,7 +19393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0.27655388133263997</v>
       </c>
@@ -19458,7 +19452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0.25217502789132001</v>
       </c>
@@ -19517,7 +19511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0.31417567522471901</v>
       </c>
@@ -19576,7 +19570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0.85262346995295901</v>
       </c>
@@ -19635,7 +19629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0.84122489614075802</v>
       </c>
@@ -19694,7 +19688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0.42561732442635603</v>
       </c>
@@ -19753,7 +19747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0.99362677493546503</v>
       </c>
@@ -19812,7 +19806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0.99684050098941102</v>
       </c>
@@ -19871,7 +19865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0.874512546991981</v>
       </c>
@@ -19930,7 +19924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0.54734387080081603</v>
       </c>
@@ -19989,7 +19983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0.67792721820555402</v>
       </c>
@@ -20048,7 +20042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0.75482313788702904</v>
       </c>
@@ -20107,7 +20101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0.85753534824406297</v>
       </c>
@@ -20166,7 +20160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0.16115337295793999</v>
       </c>
@@ -20225,7 +20219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0.72471661859890402</v>
       </c>
@@ -20284,7 +20278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0.68685990598621804</v>
       </c>
@@ -20343,7 +20337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0.40194587821994598</v>
       </c>
@@ -20402,7 +20396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0.58037994419638395</v>
       </c>
@@ -20461,7 +20455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0.95389158083384595</v>
       </c>
@@ -20520,7 +20514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0.567830486474041</v>
       </c>
@@ -20576,10 +20570,10 @@
         <v>0.99071249900929004</v>
       </c>
       <c r="S341">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0.44974045120050299</v>
       </c>
@@ -20638,7 +20632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0.19675296151286201</v>
       </c>
@@ -20697,7 +20691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0.12882713345267499</v>
       </c>
@@ -20756,7 +20750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0.76811859855661102</v>
       </c>
@@ -20815,7 +20809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0.58752267176363004</v>
       </c>
@@ -20874,7 +20868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0.24345657952492</v>
       </c>
@@ -20933,7 +20927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0.71882940847814703</v>
       </c>
@@ -20992,7 +20986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0.30827495414091</v>
       </c>
@@ -21051,7 +21045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0.193119001946049</v>
       </c>
@@ -21110,7 +21104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0.29288303287337603</v>
       </c>
@@ -21169,7 +21163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0.86358479566277102</v>
       </c>
@@ -21228,7 +21222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0.21233404195453501</v>
       </c>
@@ -21287,7 +21281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0.97438152087852303</v>
       </c>
@@ -21346,7 +21340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0.81872832363523096</v>
       </c>
@@ -21405,7 +21399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0.36553507566633098</v>
       </c>
@@ -21464,7 +21458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0.36933213983947</v>
       </c>
@@ -21523,7 +21517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0.70220296126014203</v>
       </c>
@@ -21582,7 +21576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0.11580213415953799</v>
       </c>
@@ -21641,7 +21635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0.10598121172645</v>
       </c>
@@ -21700,7 +21694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0.45745093069918802</v>
       </c>
@@ -21759,7 +21753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0.80954336735238797</v>
       </c>
@@ -21818,7 +21812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0.369923545535291</v>
       </c>
@@ -21877,7 +21871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0.71428752817316998</v>
       </c>
@@ -21936,7 +21930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0.96756408027399099</v>
       </c>
@@ -21995,7 +21989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0.749635747814964</v>
       </c>
@@ -22054,7 +22048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0.641577202546048</v>
       </c>
@@ -22110,10 +22104,10 @@
         <v>0.89738124243837403</v>
       </c>
       <c r="S367">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0.77239230672389003</v>
       </c>
@@ -22172,7 +22166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>4.9105220978769099E-2</v>
       </c>
@@ -22231,7 +22225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0.591656232468732</v>
       </c>
@@ -22290,7 +22284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0.392271292397183</v>
       </c>
@@ -22349,7 +22343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0.649465744939839</v>
       </c>
@@ -22408,7 +22402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0.15412219417824699</v>
       </c>
@@ -22467,7 +22461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0.37394448965011701</v>
       </c>
@@ -22526,7 +22520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0.44932776235509603</v>
       </c>
@@ -22585,7 +22579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0.75674482662256604</v>
       </c>
@@ -22644,7 +22638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0.82036531539763202</v>
       </c>
@@ -22703,7 +22697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0.95451654154005305</v>
       </c>
@@ -22759,10 +22753,10 @@
         <v>0.375444252631213</v>
       </c>
       <c r="S378">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0.99919361587639599</v>
       </c>
@@ -22821,7 +22815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0.118541416264553</v>
       </c>
@@ -22880,7 +22874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0.158741579392355</v>
       </c>
@@ -22939,7 +22933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0.66736433456341404</v>
       </c>
@@ -22998,7 +22992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0.91695226647684103</v>
       </c>
@@ -23057,7 +23051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0.33507516354115402</v>
       </c>
@@ -23116,7 +23110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0.18620829713504899</v>
       </c>
@@ -23175,7 +23169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0.51054941757400996</v>
       </c>
@@ -23234,7 +23228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>7.7906373703283099E-2</v>
       </c>
@@ -23293,7 +23287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0.62478695419461705</v>
       </c>
@@ -23349,10 +23343,10 @@
         <v>0.60179318564737005</v>
       </c>
       <c r="S388">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0.48873841308522897</v>
       </c>
@@ -23411,7 +23405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0.88376763530929203</v>
       </c>
@@ -23470,7 +23464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0.89356958306937695</v>
       </c>
@@ -23529,7 +23523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0.721517595273649</v>
       </c>
@@ -23588,7 +23582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0.45381278242372602</v>
       </c>
@@ -23647,7 +23641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>5.0651229588159603E-2</v>
       </c>
@@ -23706,7 +23700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0.881713141643235</v>
       </c>
@@ -23765,7 +23759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>4.1401327794624699E-4</v>
       </c>
@@ -23824,7 +23818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0.79969070351346205</v>
       </c>
@@ -23883,7 +23877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0.82796049117136505</v>
       </c>
@@ -23942,7 +23936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.38405782583092002</v>
       </c>
@@ -24001,7 +23995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0.24287714746832401</v>
       </c>
@@ -24060,7 +24054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0.47559294608783798</v>
       </c>
@@ -24119,7 +24113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0.697729988075378</v>
       </c>
@@ -24178,7 +24172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0.10393580239292</v>
       </c>
@@ -24237,7 +24231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0.35072715824030098</v>
       </c>
@@ -24296,7 +24290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0.845013770881471</v>
       </c>
@@ -24352,10 +24346,10 @@
         <v>0.184221983539302</v>
       </c>
       <c r="S405">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0.68781287492666798</v>
       </c>
@@ -24414,7 +24408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0.12883713012431799</v>
       </c>
@@ -24473,7 +24467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0.96518839294245995</v>
       </c>
@@ -24532,7 +24526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0.133715331514314</v>
       </c>
@@ -24591,7 +24585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0.42117492482971602</v>
       </c>
@@ -24650,7 +24644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0.44166445933127102</v>
       </c>
@@ -24709,7 +24703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0.73545697476818295</v>
       </c>
@@ -24768,7 +24762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0.23419778204212499</v>
       </c>
@@ -24827,7 +24821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0.83352524717855703</v>
       </c>
@@ -24886,7 +24880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0.14419819588591801</v>
       </c>
@@ -24945,7 +24939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0.92984578327223999</v>
       </c>
@@ -25004,7 +24998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>0.34590438462198803</v>
       </c>
@@ -25063,7 +25057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>0.245129997571671</v>
       </c>
@@ -25122,7 +25116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>0.91107072591548699</v>
       </c>
@@ -25181,7 +25175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>0.48938402435224898</v>
       </c>
@@ -25240,7 +25234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>0.56177787429704795</v>
       </c>
@@ -25296,10 +25290,10 @@
         <v>0.84392112954260901</v>
       </c>
       <c r="S421">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>0.11166495235197001</v>
       </c>
@@ -25358,7 +25352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>0.69164370237461603</v>
       </c>
@@ -25417,7 +25411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>0.33135689314739297</v>
       </c>
@@ -25476,7 +25470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>0.57323652911776002</v>
       </c>
@@ -25535,7 +25529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>0.95930172449831497</v>
       </c>
@@ -25594,7 +25588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>0.94780134458301801</v>
       </c>
@@ -25653,7 +25647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>0.110817504670315</v>
       </c>
@@ -25712,7 +25706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>0.52097790843755398</v>
       </c>
@@ -25771,7 +25765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>0.46947143279119502</v>
       </c>
@@ -25830,7 +25824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>0.284275430649156</v>
       </c>
@@ -25889,7 +25883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>3.09362078318372E-2</v>
       </c>
@@ -25948,7 +25942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2.7094818284321101E-2</v>
       </c>
@@ -26007,7 +26001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>0.78122967314492497</v>
       </c>
@@ -26063,10 +26057,10 @@
         <v>5.5649655784428501E-2</v>
       </c>
       <c r="S434">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>0.827651409850093</v>
       </c>
@@ -26125,7 +26119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>0.73078408584050403</v>
       </c>
@@ -26184,7 +26178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>0.70701420567412299</v>
       </c>
@@ -26243,7 +26237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>0.40744552778778598</v>
       </c>
@@ -26302,7 +26296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>0.39629877918762002</v>
       </c>
@@ -26361,7 +26355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>0.85981141273320305</v>
       </c>
@@ -26420,7 +26414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>0.28277877120482198</v>
       </c>
@@ -26479,7 +26473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>0.89668375156664604</v>
       </c>
@@ -26538,7 +26532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>0.515229009141007</v>
       </c>
@@ -26597,7 +26591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>0.25553736521784798</v>
       </c>
@@ -26656,7 +26650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>0.54312671537562696</v>
       </c>
@@ -26715,7 +26709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>0.70306929197524504</v>
       </c>
@@ -26774,7 +26768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>0.67302433327487099</v>
       </c>
@@ -26833,7 +26827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>0.92249269611460805</v>
       </c>
@@ -26892,7 +26886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>0.85138590500767597</v>
       </c>
@@ -26948,10 +26942,10 @@
         <v>0.70375762696688304</v>
       </c>
       <c r="S449">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>0.162728465807675</v>
       </c>
@@ -27010,7 +27004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>0.317633352644689</v>
       </c>
@@ -27069,7 +27063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>0.19792406129288501</v>
       </c>
@@ -27128,7 +27122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>0.72436119607882499</v>
       </c>
@@ -27187,7 +27181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>0.17825234576464699</v>
       </c>
@@ -27246,7 +27240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>0.50463277772586301</v>
       </c>
@@ -27305,7 +27299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>0.790274328015382</v>
       </c>
@@ -27364,7 +27358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>0.25935927714842</v>
       </c>
@@ -27423,7 +27417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>0.93935573334779798</v>
       </c>
@@ -27479,10 +27473,10 @@
         <v>0.234213598172128</v>
       </c>
       <c r="S458">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>0.80459497981290795</v>
       </c>
@@ -27541,7 +27535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>0.40402619845311399</v>
       </c>
@@ -27600,7 +27594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>0.21275073233474401</v>
       </c>
@@ -27659,7 +27653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>1.9149868205810501E-2</v>
       </c>
@@ -27718,7 +27712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>0.61707263401476597</v>
       </c>
@@ -27777,7 +27771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>0.66657484105477705</v>
       </c>
@@ -27836,7 +27830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>6.5921984892338498E-2</v>
       </c>
@@ -27895,7 +27889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>0.76354990442309301</v>
       </c>
@@ -27954,7 +27948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>0.26196100914514497</v>
       </c>
@@ -28013,7 +28007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>0.30770451893719503</v>
       </c>
@@ -28072,7 +28066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>4.3390505381911498E-2</v>
       </c>
@@ -28131,7 +28125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>0.54573413497871803</v>
       </c>
@@ -28190,7 +28184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>0.16928710227237101</v>
       </c>
@@ -28249,7 +28243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>0.90217937781190904</v>
       </c>
@@ -28308,7 +28302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>7.7629866017701304E-2</v>
       </c>
@@ -28367,7 +28361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>0.97621266010036201</v>
       </c>
@@ -28426,7 +28420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>0.34185081236193698</v>
       </c>
@@ -28485,7 +28479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>1.37215845558481E-2</v>
       </c>
@@ -28544,7 +28538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>0.86908873486487803</v>
       </c>
@@ -28603,7 +28597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>0.60127134270215798</v>
       </c>
@@ -28662,7 +28656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>0.218492977689796</v>
       </c>
@@ -28721,7 +28715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>0.45764086146373301</v>
       </c>
@@ -28780,7 +28774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>0.74067670140130804</v>
       </c>
@@ -28836,10 +28830,10 @@
         <v>0.88308686743904297</v>
       </c>
       <c r="S481">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>0.55615047522199601</v>
       </c>
@@ -28898,7 +28892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>0.81498653282954603</v>
       </c>
@@ -28957,7 +28951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>0.464011896475373</v>
       </c>
@@ -29016,7 +29010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>0.20745258198067901</v>
       </c>
@@ -29075,7 +29069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>9.5843910379335207E-2</v>
       </c>
@@ -29134,7 +29128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>0.427646178040756</v>
       </c>
@@ -29193,7 +29187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>0.87566531585762197</v>
       </c>
@@ -29252,7 +29246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>0.20046778375075899</v>
       </c>
@@ -29311,7 +29305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>0.27503554932514401</v>
       </c>
@@ -29370,7 +29364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>0.12524900041494699</v>
       </c>
@@ -29429,7 +29423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>0.224618732568342</v>
       </c>
@@ -29488,7 +29482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>0.53855805714718097</v>
       </c>
@@ -29547,7 +29541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>0.98556838333477303</v>
       </c>
@@ -29606,7 +29600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>0.30367498331599702</v>
       </c>
@@ -29665,7 +29659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>5.7152542562430901E-2</v>
       </c>
@@ -29724,7 +29718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>0.67781259768073299</v>
       </c>
@@ -29783,7 +29777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>0.433612168211645</v>
       </c>
@@ -29842,7 +29836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>3.6301096411059698E-2</v>
       </c>
@@ -29901,7 +29895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>0.323438694725175</v>
       </c>
@@ -29960,7 +29954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>0.63068329290642</v>
       </c>
@@ -30019,7 +30013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>0.65034617738177303</v>
       </c>
@@ -30078,7 +30072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>0.49865538007709098</v>
       </c>
@@ -30137,7 +30131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>9.1349043495332197E-2</v>
       </c>
@@ -30196,7 +30190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>0.86487755392833299</v>
       </c>
@@ -30255,7 +30249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>0.29295447137879399</v>
       </c>
@@ -30314,7 +30308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>0.59581212323133104</v>
       </c>
@@ -30373,7 +30367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>0.145486262387647</v>
       </c>
@@ -30432,7 +30426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>0.52623876439174599</v>
       </c>
@@ -30488,10 +30482,10 @@
         <v>0.64402397533283595</v>
       </c>
       <c r="S509">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>0.37948637398399598</v>
       </c>
@@ -30550,7 +30544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>0.176703715409773</v>
       </c>
@@ -30609,7 +30603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>0.99021253902594397</v>
       </c>
@@ -30668,7 +30662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>6.7201972785147099E-2</v>
       </c>
@@ -30727,7 +30721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>0.35609639063089399</v>
       </c>
@@ -30786,7 +30780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>0.53225393335904103</v>
       </c>
@@ -30845,7 +30839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>0.58279563391891598</v>
       </c>
@@ -30901,10 +30895,10 @@
         <v>0.399201026000082</v>
       </c>
       <c r="S516">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>0.63462826177063902</v>
       </c>
@@ -30963,7 +30957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>0.55084336237826703</v>
       </c>
@@ -31022,7 +31016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>0.788494424106708</v>
       </c>
@@ -31081,7 +31075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>0.75403481260743999</v>
       </c>
@@ -31140,7 +31134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>0.584213643130432</v>
       </c>
@@ -31199,7 +31193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>0.61226529019186204</v>
       </c>
@@ -31258,7 +31252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>0.36161149862067099</v>
       </c>
@@ -31317,7 +31311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>0.26985530015986597</v>
       </c>
@@ -31376,7 +31370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>0.77102846973963701</v>
       </c>
@@ -31435,7 +31429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>0.23140894433405801</v>
       </c>
@@ -31494,7 +31488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>0.84281963767587298</v>
       </c>
@@ -31550,10 +31544,10 @@
         <v>0.71390947172185404</v>
       </c>
       <c r="S527">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>0.41157913874679503</v>
       </c>
@@ -31612,7 +31606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>8.3972001196040397E-2</v>
       </c>
@@ -31671,7 +31665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>0.29807567762133302</v>
       </c>
@@ -31730,7 +31724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>0.98046492797115603</v>
       </c>
@@ -31789,7 +31783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>0.43043098939039398</v>
       </c>
@@ -31848,7 +31842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>0.57121129909452595</v>
       </c>
@@ -31907,7 +31901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>0.93712634678878304</v>
       </c>
@@ -31963,10 +31957,10 @@
         <v>0.88656034271569095</v>
       </c>
       <c r="S534">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>0.31414965925893401</v>
       </c>
@@ -32025,7 +32019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>0.192701436876733</v>
       </c>
@@ -32084,7 +32078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>0.65713602173555996</v>
       </c>
@@ -32143,7 +32137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>0.91589378990077697</v>
       </c>
@@ -32202,7 +32196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>0.47859955526784798</v>
       </c>
@@ -32261,7 +32255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>7.7925555369195796E-3</v>
       </c>
@@ -32320,7 +32314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>0.60807456549438099</v>
       </c>
